--- a/Results/property_id_weekdays/CP.xlsx
+++ b/Results/property_id_weekdays/CP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>Property_id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>room_count</t>
   </si>
   <si>
@@ -56,6 +59,21 @@
   </si>
   <si>
     <t>CORPORATES</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -417,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,174 +472,189 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42009</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>52200</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>52200</v>
+        <v>26100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="I2">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>42010</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>52200</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>52200</v>
+        <v>26100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>42013</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I4">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>42038</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>22750</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>22750</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>22750</v>
       </c>
       <c r="I5">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>42055</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -629,69 +662,75 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>42072</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>42081</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -699,69 +738,75 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>42145</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>5400</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>5400</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I9">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>42136</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -769,34 +814,37 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>42137</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -804,104 +852,113 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>42142</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>42143</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I13">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>42208</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,25 +966,28 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>42233</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -939,39 +999,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>42254</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -979,34 +1042,37 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>42257</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,39 +1080,45 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>42258</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>0</v>
       </c>
     </row>
